--- a/biology/Botanique/Artemisia_abaensis/Artemisia_abaensis.xlsx
+++ b/biology/Botanique/Artemisia_abaensis/Artemisia_abaensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Artemisia abaensis est une espèce de plantes herbacées vivaces appartenant au genre des armoises, décrite pour la première fois par Yeou-Ruenn Ling et S. Y. Zhao en 1985. Elle est endémique de Chine.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Artemisia abaensis est une dicotylédone de la famille des Asteraceae, sous-famille des Asteroideae.
-Ses spécimens adultes mesurent un mètre de hauteur ou davantage[2]. Toutes les parties de la plante sont couvertes de poils gris-jaunâtre[2].
-Sa floraison dure d'août à octobre[2].
+Ses spécimens adultes mesurent un mètre de hauteur ou davantage. Toutes les parties de la plante sont couvertes de poils gris-jaunâtre.
+Sa floraison dure d'août à octobre.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son aire de répartition se situe essentiellement dans l’ouest du Sichuan, l’est du Qinghai et le sud-ouest du Gansu, où elle pousse le long des rives des lacs, dans les vallées fluviales et au bord des routes, à moyenne et haute altitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire de répartition se situe essentiellement dans l’ouest du Sichuan, l’est du Qinghai et le sud-ouest du Gansu, où elle pousse le long des rives des lacs, dans les vallées fluviales et au bord des routes, à moyenne et haute altitude.
 </t>
         </is>
       </c>
